--- a/DiagnosticReportIG/CurrentBuild/ValueSet-units-of-measure-vs.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/ValueSet-units-of-measure-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.2</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-20T10:06:13+00:00</t>
+    <t>2025-09-10T06:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
